--- a/Overcoming challenges in deep-sea mining ecological assessment/data 24.10.xlsx
+++ b/Overcoming challenges in deep-sea mining ecological assessment/data 24.10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasee\Desktop\人工智能预测\生物预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1FBB60-2832-4D81-A7B3-6E01850CDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F283F4-D6D6-4114-AE5A-D155586466B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A19C6792-CBCC-40D2-9C9B-5C7327BCC02A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A19C6792-CBCC-40D2-9C9B-5C7327BCC02A}"/>
   </bookViews>
   <sheets>
     <sheet name="DY79" sheetId="4" r:id="rId1"/>
@@ -37,69 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="124">
   <si>
-    <t>BC01</t>
-  </si>
-  <si>
-    <t>BC02</t>
-  </si>
-  <si>
-    <t>BC03</t>
-  </si>
-  <si>
-    <t>BC04</t>
-  </si>
-  <si>
-    <t>BC05</t>
-  </si>
-  <si>
-    <t>BC06</t>
-  </si>
-  <si>
-    <t>BC07</t>
-  </si>
-  <si>
-    <t>BC08</t>
-  </si>
-  <si>
-    <t>BC09</t>
-  </si>
-  <si>
-    <t>BC14</t>
-  </si>
-  <si>
-    <t>BC15</t>
-  </si>
-  <si>
-    <t>BC16</t>
-  </si>
-  <si>
-    <t>BC19</t>
-  </si>
-  <si>
-    <t>BC22</t>
-  </si>
-  <si>
-    <t>BC25</t>
-  </si>
-  <si>
-    <t>BC29</t>
-  </si>
-  <si>
-    <t>BC34</t>
-  </si>
-  <si>
-    <t>BC41</t>
-  </si>
-  <si>
-    <t>BC43</t>
-  </si>
-  <si>
-    <t>BC45a</t>
-  </si>
-  <si>
-    <t>BC53</t>
-  </si>
-  <si>
     <t>Simpson</t>
   </si>
   <si>
@@ -112,60 +49,6 @@
     <t>shannon</t>
   </si>
   <si>
-    <t>BC17</t>
-  </si>
-  <si>
-    <t>BC18</t>
-  </si>
-  <si>
-    <t>BC21</t>
-  </si>
-  <si>
-    <t>BC23</t>
-  </si>
-  <si>
-    <t>BC24</t>
-  </si>
-  <si>
-    <t>BC26</t>
-  </si>
-  <si>
-    <t>BC27</t>
-  </si>
-  <si>
-    <t>BC31</t>
-  </si>
-  <si>
-    <t>BC32</t>
-  </si>
-  <si>
-    <t>BC33</t>
-  </si>
-  <si>
-    <t>BC38</t>
-  </si>
-  <si>
-    <t>BC40</t>
-  </si>
-  <si>
-    <t>BC44</t>
-  </si>
-  <si>
-    <t>BC46</t>
-  </si>
-  <si>
-    <t>BC47</t>
-  </si>
-  <si>
-    <t>BC49</t>
-  </si>
-  <si>
-    <t>BC50</t>
-  </si>
-  <si>
-    <t>BC54</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -173,33 +56,6 @@
   </si>
   <si>
     <t>Seqs_Num</t>
-  </si>
-  <si>
-    <t>BC20a</t>
-  </si>
-  <si>
-    <t>BC28a</t>
-  </si>
-  <si>
-    <t>BC30a</t>
-  </si>
-  <si>
-    <t>BC35</t>
-  </si>
-  <si>
-    <t>BC36</t>
-  </si>
-  <si>
-    <t>BC37a</t>
-  </si>
-  <si>
-    <t>BC39a</t>
-  </si>
-  <si>
-    <t>BC42a</t>
-  </si>
-  <si>
-    <t>BC52a</t>
   </si>
   <si>
     <t>reads</t>
@@ -408,6 +264,151 @@
   <si>
     <t>Depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station2</t>
+  </si>
+  <si>
+    <t>Station3</t>
+  </si>
+  <si>
+    <t>Station4</t>
+  </si>
+  <si>
+    <t>Station5</t>
+  </si>
+  <si>
+    <t>Station6</t>
+  </si>
+  <si>
+    <t>Station7</t>
+  </si>
+  <si>
+    <t>Station8</t>
+  </si>
+  <si>
+    <t>Station9</t>
+  </si>
+  <si>
+    <t>Station10</t>
+  </si>
+  <si>
+    <t>Station11</t>
+  </si>
+  <si>
+    <t>Station12</t>
+  </si>
+  <si>
+    <t>Station13</t>
+  </si>
+  <si>
+    <t>Station14</t>
+  </si>
+  <si>
+    <t>Station15</t>
+  </si>
+  <si>
+    <t>Station16</t>
+  </si>
+  <si>
+    <t>Station17</t>
+  </si>
+  <si>
+    <t>Station18</t>
+  </si>
+  <si>
+    <t>Station19</t>
+  </si>
+  <si>
+    <t>Station20</t>
+  </si>
+  <si>
+    <t>Station21</t>
+  </si>
+  <si>
+    <t>Station22</t>
+  </si>
+  <si>
+    <t>Station23</t>
+  </si>
+  <si>
+    <t>Station24</t>
+  </si>
+  <si>
+    <t>Station25</t>
+  </si>
+  <si>
+    <t>Station26</t>
+  </si>
+  <si>
+    <t>Station27</t>
+  </si>
+  <si>
+    <t>Station28</t>
+  </si>
+  <si>
+    <t>Station29</t>
+  </si>
+  <si>
+    <t>Station30</t>
+  </si>
+  <si>
+    <t>Station31</t>
+  </si>
+  <si>
+    <t>Station32</t>
+  </si>
+  <si>
+    <t>Station33</t>
+  </si>
+  <si>
+    <t>Station34</t>
+  </si>
+  <si>
+    <t>Station35</t>
+  </si>
+  <si>
+    <t>Station36</t>
+  </si>
+  <si>
+    <t>Station37</t>
+  </si>
+  <si>
+    <t>Station38</t>
+  </si>
+  <si>
+    <t>Station39</t>
+  </si>
+  <si>
+    <t>Station40</t>
+  </si>
+  <si>
+    <t>Station41</t>
+  </si>
+  <si>
+    <t>Station42</t>
+  </si>
+  <si>
+    <t>Station43</t>
+  </si>
+  <si>
+    <t>Station44</t>
+  </si>
+  <si>
+    <t>Station45</t>
+  </si>
+  <si>
+    <t>Station46</t>
+  </si>
+  <si>
+    <t>Station47</t>
+  </si>
+  <si>
+    <t>Station48</t>
   </si>
 </sst>
 </file>
@@ -775,178 +776,179 @@
   <dimension ref="A1:BA49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AI1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AS1" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AT1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU1" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>117</v>
-      </c>
       <c r="AV1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="AW1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="AX1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AY1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="AZ1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="BA1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1">
         <v>66</v>
@@ -1107,7 +1109,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1">
         <v>76</v>
@@ -1268,7 +1270,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1">
         <v>270</v>
@@ -1429,7 +1431,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>186</v>
@@ -1590,7 +1592,7 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>35</v>
@@ -1751,7 +1753,7 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1">
         <v>54</v>
@@ -1912,7 +1914,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>59</v>
@@ -2073,7 +2075,7 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>134</v>
@@ -2234,7 +2236,7 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>128</v>
@@ -2395,7 +2397,7 @@
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>120</v>
@@ -2556,7 +2558,7 @@
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1">
         <v>197</v>
@@ -2717,7 +2719,7 @@
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>103</v>
@@ -2878,7 +2880,7 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>275</v>
@@ -3039,7 +3041,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>38</v>
@@ -3200,7 +3202,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1">
         <v>49</v>
@@ -3361,7 +3363,7 @@
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <v>116</v>
@@ -3522,7 +3524,7 @@
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1">
         <v>534</v>
@@ -3683,7 +3685,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1">
         <v>43</v>
@@ -3844,7 +3846,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>155</v>
@@ -4005,7 +4007,7 @@
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>265</v>
@@ -4166,7 +4168,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1">
         <v>51</v>
@@ -4327,7 +4329,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1">
         <v>91</v>
@@ -4488,7 +4490,7 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1">
         <v>263</v>
@@ -4649,7 +4651,7 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1">
         <v>205</v>
@@ -4810,7 +4812,7 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1">
         <v>45</v>
@@ -4971,7 +4973,7 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1">
         <v>81</v>
@@ -5132,7 +5134,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1">
         <v>42</v>
@@ -5293,7 +5295,7 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1">
         <v>191</v>
@@ -5454,7 +5456,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1">
         <v>61</v>
@@ -5615,7 +5617,7 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1">
         <v>112</v>
@@ -5776,7 +5778,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1">
         <v>88</v>
@@ -5937,7 +5939,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1">
         <v>81</v>
@@ -6098,7 +6100,7 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1">
         <v>112</v>
@@ -6259,7 +6261,7 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1">
         <v>143</v>
@@ -6420,7 +6422,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1">
         <v>219</v>
@@ -6581,7 +6583,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1">
         <v>56</v>
@@ -6742,7 +6744,7 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1">
         <v>127</v>
@@ -6903,7 +6905,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1">
         <v>77</v>
@@ -7064,7 +7066,7 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1">
         <v>179</v>
@@ -7225,7 +7227,7 @@
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1">
         <v>73</v>
@@ -7386,7 +7388,7 @@
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1">
         <v>98</v>
@@ -7547,7 +7549,7 @@
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1">
         <v>148</v>
@@ -7708,7 +7710,7 @@
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1">
         <v>372</v>
@@ -7869,7 +7871,7 @@
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1">
         <v>187</v>
@@ -8030,7 +8032,7 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1">
         <v>83</v>
@@ -8191,7 +8193,7 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1">
         <v>301</v>
@@ -8352,7 +8354,7 @@
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1">
         <v>52</v>
@@ -8513,7 +8515,7 @@
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1">
         <v>321</v>
@@ -8690,160 +8692,160 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
